--- a/DataNV/Сай.xlsx
+++ b/DataNV/Сай.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026507 від 15.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026507 від 15.07.2024 16:42:24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -725,7 +725,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026599 від 19.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026599 від 19.07.2024 10:11:23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -837,7 +837,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026657 від 23.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026657 від 23.07.2024 10:06:39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -954,7 +954,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026767 від 26.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026767 від 26.07.2024 12:30:06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1076,7 +1076,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026794 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026794 від 29.07.2024 09:58:31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1198,7 +1198,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026800 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026800 від 29.07.2024 10:39:37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026804 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026804 від 29.07.2024 13:21:19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1437,7 +1437,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026827 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026827 від 30.07.2024 09:49:54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1554,7 +1554,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026835 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026835 від 30.07.2024 10:44:55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026839 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026839 від 30.07.2024 11:26:46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1773,7 +1773,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026858 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026858 від 30.07.2024 15:47:51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
